--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf8-Tnfrsf8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnfsf8</t>
+  </si>
+  <si>
+    <t>Tnfrsf8</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf8</t>
-  </si>
-  <si>
-    <t>Tnfrsf8</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06010133333333334</v>
+        <v>0.7870423333333333</v>
       </c>
       <c r="H2">
-        <v>0.180304</v>
+        <v>2.361127</v>
       </c>
       <c r="I2">
-        <v>0.03494699048738051</v>
+        <v>0.2114922334752252</v>
       </c>
       <c r="J2">
-        <v>0.03494699048738051</v>
+        <v>0.2114922334752252</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.591247</v>
+        <v>0.7172796666666668</v>
       </c>
       <c r="N2">
-        <v>1.773741</v>
+        <v>2.151839</v>
       </c>
       <c r="O2">
-        <v>0.5498792197147154</v>
+        <v>0.6605750256943618</v>
       </c>
       <c r="P2">
-        <v>0.5498792197147154</v>
+        <v>0.6605750256943617</v>
       </c>
       <c r="Q2">
-        <v>0.03553473302933333</v>
+        <v>0.564529462505889</v>
       </c>
       <c r="R2">
-        <v>0.319812597264</v>
+        <v>5.080765162553</v>
       </c>
       <c r="S2">
-        <v>0.01921662386057838</v>
+        <v>0.1397064875620549</v>
       </c>
       <c r="T2">
-        <v>0.01921662386057838</v>
+        <v>0.1397064875620549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,51 +602,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06010133333333334</v>
+        <v>0.7870423333333333</v>
       </c>
       <c r="H3">
-        <v>0.180304</v>
+        <v>2.361127</v>
       </c>
       <c r="I3">
-        <v>0.03494699048738051</v>
+        <v>0.2114922334752252</v>
       </c>
       <c r="J3">
-        <v>0.03494699048738051</v>
+        <v>0.2114922334752252</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.4839836666666666</v>
+        <v>0.2168863333333333</v>
       </c>
       <c r="N3">
-        <v>1.451951</v>
+        <v>0.650659</v>
       </c>
       <c r="O3">
-        <v>0.4501207802852845</v>
+        <v>0.1997403549444302</v>
       </c>
       <c r="P3">
-        <v>0.4501207802852845</v>
+        <v>0.1997403549444302</v>
       </c>
       <c r="Q3">
-        <v>0.02908806367822223</v>
+        <v>0.1706987258547777</v>
       </c>
       <c r="R3">
-        <v>0.261792573104</v>
+        <v>1.536288532693</v>
       </c>
       <c r="S3">
-        <v>0.01573036662680213</v>
+        <v>0.04224353378233178</v>
       </c>
       <c r="T3">
-        <v>0.01573036662680213</v>
+        <v>0.04224353378233178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,40 +670,40 @@
         <v>2.361127</v>
       </c>
       <c r="I4">
-        <v>0.4576397795306663</v>
+        <v>0.2114922334752252</v>
       </c>
       <c r="J4">
-        <v>0.4576397795306663</v>
+        <v>0.2114922334752252</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.591247</v>
+        <v>0.1516753333333334</v>
       </c>
       <c r="N4">
-        <v>1.773741</v>
+        <v>0.455026</v>
       </c>
       <c r="O4">
-        <v>0.5498792197147154</v>
+        <v>0.1396846193612081</v>
       </c>
       <c r="P4">
-        <v>0.5498792197147154</v>
+        <v>0.1396846193612081</v>
       </c>
       <c r="Q4">
-        <v>0.4653364184563333</v>
+        <v>0.1193749082557778</v>
       </c>
       <c r="R4">
-        <v>4.188027766107</v>
+        <v>1.074374174302</v>
       </c>
       <c r="S4">
-        <v>0.2516466048787372</v>
+        <v>0.02954221213083859</v>
       </c>
       <c r="T4">
-        <v>0.2516466048787371</v>
+        <v>0.02954221213083859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7870423333333333</v>
+        <v>2.080849333333334</v>
       </c>
       <c r="H5">
-        <v>2.361127</v>
+        <v>6.242548</v>
       </c>
       <c r="I5">
-        <v>0.4576397795306663</v>
+        <v>0.5591611205565395</v>
       </c>
       <c r="J5">
-        <v>0.4576397795306663</v>
+        <v>0.5591611205565395</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4839836666666666</v>
+        <v>0.7172796666666668</v>
       </c>
       <c r="N5">
-        <v>1.451951</v>
+        <v>2.151839</v>
       </c>
       <c r="O5">
-        <v>0.4501207802852845</v>
+        <v>0.6605750256943618</v>
       </c>
       <c r="P5">
-        <v>0.4501207802852845</v>
+        <v>0.6605750256943617</v>
       </c>
       <c r="Q5">
-        <v>0.3809156343085555</v>
+        <v>1.492550916196889</v>
       </c>
       <c r="R5">
-        <v>3.428240708776999</v>
+        <v>13.432958245772</v>
       </c>
       <c r="S5">
-        <v>0.2059931746519291</v>
+        <v>0.3693678715789243</v>
       </c>
       <c r="T5">
-        <v>0.2059931746519291</v>
+        <v>0.3693678715789241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +779,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.080849333333334</v>
+      </c>
+      <c r="H6">
+        <v>6.242548</v>
+      </c>
+      <c r="I6">
+        <v>0.5591611205565395</v>
+      </c>
+      <c r="J6">
+        <v>0.5591611205565395</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.3105953333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.931786</v>
-      </c>
-      <c r="I6">
-        <v>0.1806011873184973</v>
-      </c>
-      <c r="J6">
-        <v>0.1806011873184973</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.591247</v>
+        <v>0.2168863333333333</v>
       </c>
       <c r="N6">
-        <v>1.773741</v>
+        <v>0.650659</v>
       </c>
       <c r="O6">
-        <v>0.5498792197147154</v>
+        <v>0.1997403549444302</v>
       </c>
       <c r="P6">
-        <v>0.5498792197147154</v>
+        <v>0.1997403549444302</v>
       </c>
       <c r="Q6">
-        <v>0.1836385590473333</v>
+        <v>0.4513077821257778</v>
       </c>
       <c r="R6">
-        <v>1.652747031426</v>
+        <v>4.061770039132</v>
       </c>
       <c r="S6">
-        <v>0.09930883996224643</v>
+        <v>0.1116870406910885</v>
       </c>
       <c r="T6">
-        <v>0.09930883996224643</v>
+        <v>0.1116870406910885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,22 +844,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3105953333333333</v>
+        <v>2.080849333333334</v>
       </c>
       <c r="H7">
-        <v>0.931786</v>
+        <v>6.242548</v>
       </c>
       <c r="I7">
-        <v>0.1806011873184973</v>
+        <v>0.5591611205565395</v>
       </c>
       <c r="J7">
-        <v>0.1806011873184973</v>
+        <v>0.5591611205565395</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +868,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4839836666666666</v>
+        <v>0.1516753333333334</v>
       </c>
       <c r="N7">
-        <v>1.451951</v>
+        <v>0.455026</v>
       </c>
       <c r="O7">
-        <v>0.4501207802852845</v>
+        <v>0.1396846193612081</v>
       </c>
       <c r="P7">
-        <v>0.4501207802852845</v>
+        <v>0.1396846193612081</v>
       </c>
       <c r="Q7">
-        <v>0.1503230682762222</v>
+        <v>0.3156135162497778</v>
       </c>
       <c r="R7">
-        <v>1.352907614486</v>
+        <v>2.840521646248</v>
       </c>
       <c r="S7">
-        <v>0.08129234735625081</v>
+        <v>0.07810620828652683</v>
       </c>
       <c r="T7">
-        <v>0.08129234735625081</v>
+        <v>0.07810620828652681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +903,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5620466666666667</v>
+        <v>0.01097433333333333</v>
       </c>
       <c r="H8">
-        <v>1.68614</v>
+        <v>0.032923</v>
       </c>
       <c r="I8">
-        <v>0.3268120426634559</v>
+        <v>0.002948998000829621</v>
       </c>
       <c r="J8">
-        <v>0.3268120426634559</v>
+        <v>0.002948998000829622</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.591247</v>
+        <v>0.7172796666666668</v>
       </c>
       <c r="N8">
-        <v>1.773741</v>
+        <v>2.151839</v>
       </c>
       <c r="O8">
-        <v>0.5498792197147154</v>
+        <v>0.6605750256943618</v>
       </c>
       <c r="P8">
-        <v>0.5498792197147154</v>
+        <v>0.6605750256943617</v>
       </c>
       <c r="Q8">
-        <v>0.3323084055266667</v>
+        <v>0.007871666155222223</v>
       </c>
       <c r="R8">
-        <v>2.99077564974</v>
+        <v>0.07084499539700001</v>
       </c>
       <c r="S8">
-        <v>0.1797071510131534</v>
+        <v>0.001948034430170648</v>
       </c>
       <c r="T8">
-        <v>0.1797071510131534</v>
+        <v>0.001948034430170648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +965,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01097433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.032923</v>
+      </c>
+      <c r="I9">
+        <v>0.002948998000829621</v>
+      </c>
+      <c r="J9">
+        <v>0.002948998000829622</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.2168863333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.650659</v>
+      </c>
+      <c r="O9">
+        <v>0.1997403549444302</v>
+      </c>
+      <c r="P9">
+        <v>0.1997403549444302</v>
+      </c>
+      <c r="Q9">
+        <v>0.002380182917444444</v>
+      </c>
+      <c r="R9">
+        <v>0.021421646257</v>
+      </c>
+      <c r="S9">
+        <v>0.0005890339074161235</v>
+      </c>
+      <c r="T9">
+        <v>0.0005890339074161236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01097433333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.032923</v>
+      </c>
+      <c r="I10">
+        <v>0.002948998000829621</v>
+      </c>
+      <c r="J10">
+        <v>0.002948998000829622</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.5620466666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.68614</v>
-      </c>
-      <c r="I9">
-        <v>0.3268120426634559</v>
-      </c>
-      <c r="J9">
-        <v>0.3268120426634559</v>
-      </c>
-      <c r="K9">
+      <c r="M10">
+        <v>0.1516753333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.455026</v>
+      </c>
+      <c r="O10">
+        <v>0.1396846193612081</v>
+      </c>
+      <c r="P10">
+        <v>0.1396846193612081</v>
+      </c>
+      <c r="Q10">
+        <v>0.001664535666444445</v>
+      </c>
+      <c r="R10">
+        <v>0.014980820998</v>
+      </c>
+      <c r="S10">
+        <v>0.0004119296632428493</v>
+      </c>
+      <c r="T10">
+        <v>0.0004119296632428493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.842511</v>
+      </c>
+      <c r="H11">
+        <v>2.527533</v>
+      </c>
+      <c r="I11">
+        <v>0.2263976479674056</v>
+      </c>
+      <c r="J11">
+        <v>0.2263976479674056</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7172796666666668</v>
+      </c>
+      <c r="N11">
+        <v>2.151839</v>
+      </c>
+      <c r="O11">
+        <v>0.6605750256943618</v>
+      </c>
+      <c r="P11">
+        <v>0.6605750256943617</v>
+      </c>
+      <c r="Q11">
+        <v>0.6043160092430001</v>
+      </c>
+      <c r="R11">
+        <v>5.438844083187001</v>
+      </c>
+      <c r="S11">
+        <v>0.149552632123212</v>
+      </c>
+      <c r="T11">
+        <v>0.149552632123212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.842511</v>
+      </c>
+      <c r="H12">
+        <v>2.527533</v>
+      </c>
+      <c r="I12">
+        <v>0.2263976479674056</v>
+      </c>
+      <c r="J12">
+        <v>0.2263976479674056</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2168863333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.650659</v>
+      </c>
+      <c r="O12">
+        <v>0.1997403549444302</v>
+      </c>
+      <c r="P12">
+        <v>0.1997403549444302</v>
+      </c>
+      <c r="Q12">
+        <v>0.182729121583</v>
+      </c>
+      <c r="R12">
+        <v>1.644562094247</v>
+      </c>
+      <c r="S12">
+        <v>0.04522074656359373</v>
+      </c>
+      <c r="T12">
+        <v>0.04522074656359375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.842511</v>
+      </c>
+      <c r="H13">
+        <v>2.527533</v>
+      </c>
+      <c r="I13">
+        <v>0.2263976479674056</v>
+      </c>
+      <c r="J13">
+        <v>0.2263976479674056</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M9">
-        <v>0.4839836666666666</v>
-      </c>
-      <c r="N9">
-        <v>1.451951</v>
-      </c>
-      <c r="O9">
-        <v>0.4501207802852845</v>
-      </c>
-      <c r="P9">
-        <v>0.4501207802852845</v>
-      </c>
-      <c r="Q9">
-        <v>0.2720214065711111</v>
-      </c>
-      <c r="R9">
-        <v>2.44819265914</v>
-      </c>
-      <c r="S9">
-        <v>0.1471048916503025</v>
-      </c>
-      <c r="T9">
-        <v>0.1471048916503025</v>
+      <c r="M13">
+        <v>0.1516753333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.455026</v>
+      </c>
+      <c r="O13">
+        <v>0.1396846193612081</v>
+      </c>
+      <c r="P13">
+        <v>0.1396846193612081</v>
+      </c>
+      <c r="Q13">
+        <v>0.127788136762</v>
+      </c>
+      <c r="R13">
+        <v>1.150093230858</v>
+      </c>
+      <c r="S13">
+        <v>0.03162426928059984</v>
+      </c>
+      <c r="T13">
+        <v>0.03162426928059984</v>
       </c>
     </row>
   </sheetData>
